--- a/get auxiliary data/party_colors_hex.xlsx
+++ b/get auxiliary data/party_colors_hex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mklde\OneDrive\Documents\R stuff\Pollspain-data\get auxiliary data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3390D3E0-8C45-4991-AE2D-D261CA009DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3B6B57-0313-4E5E-829C-D916342A1C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{B80D4FD9-B438-4764-B5E8-3B7F362C7B22}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>PSOE</t>
   </si>
@@ -198,6 +198,27 @@
   </si>
   <si>
     <t>party_color</t>
+  </si>
+  <si>
+    <t>UPN</t>
+  </si>
+  <si>
+    <t>UNION DEL PUEBLO NAVARRO</t>
+  </si>
+  <si>
+    <t>EUSKAL HERRIA BILDU</t>
+  </si>
+  <si>
+    <t>EH BILDU</t>
+  </si>
+  <si>
+    <t>#65A357</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>COALICION CANARIA</t>
   </si>
 </sst>
 </file>
@@ -569,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D53CE-D088-4780-96A9-B061B57CC1BB}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection sqref="A1:C19"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -789,6 +810,39 @@
         <v>38</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
